--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,67 +22,103 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>540003</t>
+  </si>
+  <si>
+    <t>960003</t>
+  </si>
+  <si>
     <t>000849</t>
   </si>
   <si>
-    <t>540003</t>
-  </si>
-  <si>
     <t>000850</t>
   </si>
   <si>
-    <t>960003</t>
-  </si>
-  <si>
     <t>005290</t>
   </si>
   <si>
     <t>009710</t>
   </si>
   <si>
+    <t>汇丰晋信动态策略混合A</t>
+  </si>
+  <si>
+    <t>汇丰晋信动态策略混合H</t>
+  </si>
+  <si>
     <t>汇丰晋信双核策略混合A</t>
   </si>
   <si>
-    <t>汇丰晋信动态策略混合A</t>
-  </si>
-  <si>
     <t>汇丰晋信双核策略混合C</t>
   </si>
   <si>
-    <t>汇丰晋信动态策略混合H</t>
-  </si>
-  <si>
     <t>诺德新盛灵活配置混合A</t>
   </si>
   <si>
     <t>诺德新盛灵活配置混合C</t>
   </si>
   <si>
+    <t>12.76</t>
+  </si>
+  <si>
+    <t>7.04</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>92.35</t>
+  </si>
+  <si>
     <t>84.52</t>
   </si>
   <si>
-    <t>92.35</t>
-  </si>
-  <si>
     <t>92.22</t>
   </si>
   <si>
+    <t>3.93</t>
+  </si>
+  <si>
     <t>2.87</t>
   </si>
   <si>
-    <t>3.93</t>
-  </si>
-  <si>
     <t>3.45</t>
+  </si>
+  <si>
+    <t>0.5015</t>
+  </si>
+  <si>
+    <t>0.2020</t>
+  </si>
+  <si>
+    <t>0.0175</t>
+  </si>
+  <si>
+    <t>0.0052</t>
+  </si>
+  <si>
+    <t>0.0003</t>
   </si>
 </sst>
 </file>
@@ -440,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,124 +498,166 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -1,156 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>540003</t>
-  </si>
-  <si>
-    <t>960003</t>
-  </si>
-  <si>
-    <t>000849</t>
-  </si>
-  <si>
-    <t>000850</t>
-  </si>
-  <si>
-    <t>005290</t>
-  </si>
-  <si>
-    <t>009710</t>
-  </si>
-  <si>
-    <t>汇丰晋信动态策略混合A</t>
-  </si>
-  <si>
-    <t>汇丰晋信动态策略混合H</t>
-  </si>
-  <si>
-    <t>汇丰晋信双核策略混合A</t>
-  </si>
-  <si>
-    <t>汇丰晋信双核策略混合C</t>
-  </si>
-  <si>
-    <t>诺德新盛灵活配置混合A</t>
-  </si>
-  <si>
-    <t>诺德新盛灵活配置混合C</t>
-  </si>
-  <si>
-    <t>12.76</t>
-  </si>
-  <si>
-    <t>7.04</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>92.35</t>
-  </si>
-  <si>
-    <t>84.52</t>
-  </si>
-  <si>
-    <t>92.22</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>0.5015</t>
-  </si>
-  <si>
-    <t>0.2020</t>
-  </si>
-  <si>
-    <t>0.0175</t>
-  </si>
-  <si>
-    <t>0.0052</t>
-  </si>
-  <si>
-    <t>0.0003</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,193 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3571</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.32</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.58</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.85</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1673</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.32</v>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2060,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2293,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,17 +2305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.86</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5267</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2340,14 +2383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.85</v>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2356,14 +2421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.32</v>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2372,14 +2459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.58</v>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2388,13 +2497,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5015</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>960003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5015</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="D3" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000849</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2020</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.85</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000850</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信双核策略混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>36.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1295</t>
+          <t>2.5267</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4187</t>
+          <t>0.9491</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,492 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200001</t>
+          <t>012210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久恒灵活配置混合</t>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0361</t>
+          <t>0.3757</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +1235,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -971,26 +1275,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>41.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.93</t>
+          <t>77.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1498</t>
+          <t>2.1673</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +1303,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.58</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3571</t>
+          <t>0.8173</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1037,36 +1341,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011488</t>
+          <t>012210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信乐享混合</t>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.38</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0128</t>
+          <t>0.3237</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1075,36 +1379,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002446</t>
+          <t>012051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发利鑫灵活配置混合A</t>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>68.79</t>
+          <t>81.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9308</t>
+          <t>0.2407</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1113,36 +1417,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>013634</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>申万菱信双利混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5012</t>
+          <t>0.1355</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1151,32 +1455,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012051</t>
+          <t>012211</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>63.78</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.0952</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1189,32 +1493,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>001201</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0450</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1227,36 +1531,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>200001</t>
+          <t>001727</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城久恒灵活配置混合</t>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1265,73 +1569,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>013635</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>申万菱信双利混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0189</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.79</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1896,7 +2162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +2183,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1957,26 +2223,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.92</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.32</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1673</t>
+          <t>2.1498</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1985,36 +2251,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011488</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信乐享混合</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>36.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8173</t>
+          <t>1.3571</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2023,36 +2289,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012210</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>91.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3237</t>
+          <t>1.0128</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2061,36 +2327,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012051</t>
+          <t>002446</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+          <t>广发利鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.64</t>
+          <t>68.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2407</t>
+          <t>0.9308</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2099,36 +2365,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013634</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信双利混合A</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>94.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1355</t>
+          <t>0.5012</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2137,32 +2403,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012211</t>
+          <t>012051</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>63.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0952</t>
+          <t>0.2582</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2175,32 +2441,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001201</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信安鑫回报灵活配置混合A</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0450</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2213,36 +2479,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001727</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信安鑫回报灵活配置混合C</t>
+          <t>长城久恒灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2251,35 +2517,73 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013635</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信双利混合C</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2294,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2315,7 +2619,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2345,36 +2649,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.94</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5267</t>
+          <t>1.1295</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2383,36 +2687,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011488</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信乐享混合</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>94.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9491</t>
+          <t>0.4187</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2421,492 +2725,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012210</t>
+          <t>200001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信智能汽车股票型证券投资基金A</t>
+          <t>长城久恒灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3757</t>
+          <t>0.0361</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012051</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2796</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013634</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1439</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012211</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信智能汽车股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1033</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010857</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0415</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011484</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信宜选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001201</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0348</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001727</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.06</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008324</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>宝盈祥利稳健配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>36.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>013635</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>24.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008325</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈祥利稳健配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>36.88</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011485</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信宜选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010858</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2920,128 +2768,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.57</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.86</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.85</v>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.32</v>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.58</v>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.23</v>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>4.57</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3.86</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>7.85</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>6.32</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.58</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.23</v>
       </c>
     </row>
@@ -583,6 +600,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +1925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1606,7 +2323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2156,7 +2873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2592,7 +3309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2762,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
+++ b/数据整理/stocks/A股/创业板/300806-斯迪克.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +489,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>4.06</v>
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>4.57</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>3.86</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>7.85</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>6.32</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.58</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.23</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7081</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +2566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2323,7 +2964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2873,7 +3514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3309,7 +3950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3479,7 +4120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
